--- a/src/files/energiebilanzen/index/row_indices_eb.xlsx
+++ b/src/files/energiebilanzen/index/row_indices_eb.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_WORK\AEA\Projekte\bilanzen_monitor\enerbal\src\files\energiebilanzen\index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5DC44E1-64F2-4057-A34F-25E32B7A1005}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F43400-9A3A-4D51-B9A2-B6DDE52953DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19308" yWindow="-108" windowWidth="19416" windowHeight="10416" tabRatio="926" activeTab="1" xr2:uid="{8F28FC77-E766-4AAD-93DD-BCA9FC6C3B00}"/>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" activeTab="9" xr2:uid="{F0CFE407-3D09-48F0-BB5D-BF37F2E549D4}"/>
+    <workbookView minimized="1" xWindow="24636" yWindow="3108" windowWidth="17280" windowHeight="8964" tabRatio="926" firstSheet="3" activeTab="5" xr2:uid="{8F28FC77-E766-4AAD-93DD-BCA9FC6C3B00}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="9" xr2:uid="{F0CFE407-3D09-48F0-BB5D-BF37F2E549D4}"/>
   </bookViews>
   <sheets>
     <sheet name="IDX_RENEWABLES_NUMERIC" sheetId="13" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1864" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1797" uniqueCount="161">
   <si>
     <t>Inländ. Erzeugung v. Rohenergie</t>
   </si>
@@ -343,9 +343,6 @@
     <t>Elektrische Energie Produktion erneuerbar (TJ)</t>
   </si>
   <si>
-    <t>Wasserkraft</t>
-  </si>
-  <si>
     <t>Installierte Kapazität ohne Pumpe (MW)</t>
   </si>
   <si>
@@ -388,9 +385,6 @@
     <t>Primärstrom Geothermie (MWh)</t>
   </si>
   <si>
-    <t>Wärmekraft</t>
-  </si>
-  <si>
     <t>Holz-basiert</t>
   </si>
   <si>
@@ -476,9 +470,6 @@
   </si>
   <si>
     <t>Summe Nenner</t>
-  </si>
-  <si>
-    <t>Wind</t>
   </si>
   <si>
     <t>TJ</t>
@@ -865,7 +856,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -956,14 +947,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1306,7 +1291,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="55">
+      <c r="A1" s="53">
         <v>5</v>
       </c>
       <c r="B1" s="42" t="s">
@@ -1314,7 +1299,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="55">
+      <c r="A2" s="53">
         <v>6</v>
       </c>
       <c r="B2" s="43" t="s">
@@ -1322,7 +1307,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="55">
+      <c r="A3" s="53">
         <v>7</v>
       </c>
       <c r="B3" s="43" t="s">
@@ -1330,7 +1315,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="55">
+      <c r="A4" s="53">
         <v>8</v>
       </c>
       <c r="B4" s="43" t="s">
@@ -1338,7 +1323,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="55">
+      <c r="A5" s="53">
         <v>9</v>
       </c>
       <c r="B5" s="43" t="s">
@@ -1346,7 +1331,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="55">
+      <c r="A6" s="53">
         <v>10</v>
       </c>
       <c r="B6" s="43" t="s">
@@ -1354,7 +1339,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="55">
+      <c r="A7" s="53">
         <v>11</v>
       </c>
       <c r="B7" s="43" t="s">
@@ -1362,7 +1347,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="55">
+      <c r="A8" s="53">
         <v>12</v>
       </c>
       <c r="B8" s="43" t="s">
@@ -1370,7 +1355,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="55">
+      <c r="A9" s="53">
         <v>13</v>
       </c>
       <c r="B9" s="43" t="s">
@@ -1378,7 +1363,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="55">
+      <c r="A10" s="53">
         <v>14</v>
       </c>
       <c r="B10" s="43" t="s">
@@ -1386,7 +1371,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="55">
+      <c r="A11" s="53">
         <v>15</v>
       </c>
       <c r="B11" s="43" t="s">
@@ -1394,7 +1379,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="55">
+      <c r="A12" s="53">
         <v>16</v>
       </c>
       <c r="B12" s="43" t="s">
@@ -1402,7 +1387,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="55">
+      <c r="A13" s="53">
         <v>17</v>
       </c>
       <c r="B13" s="42" t="s">
@@ -1410,135 +1395,135 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="55">
+      <c r="A14" s="53">
         <v>18</v>
       </c>
       <c r="B14" s="43" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="53">
+        <v>19</v>
+      </c>
+      <c r="B15" s="43" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="55">
-        <v>19</v>
-      </c>
-      <c r="B15" s="43" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="53">
+        <v>20</v>
+      </c>
+      <c r="B16" s="43" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="55">
-        <v>20</v>
-      </c>
-      <c r="B16" s="43" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="53">
+        <v>21</v>
+      </c>
+      <c r="B17" s="44" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="55">
-        <v>21</v>
-      </c>
-      <c r="B17" s="44" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="53">
+        <v>22</v>
+      </c>
+      <c r="B18" s="43" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="55">
-        <v>22</v>
-      </c>
-      <c r="B18" s="43" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="53">
+        <v>23</v>
+      </c>
+      <c r="B19" s="43" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="55">
-        <v>23</v>
-      </c>
-      <c r="B19" s="43" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="53">
+        <v>24</v>
+      </c>
+      <c r="B20" s="43" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="53">
+        <v>25</v>
+      </c>
+      <c r="B21" s="43" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="53">
+        <v>26</v>
+      </c>
+      <c r="B22" s="43" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="55">
-        <v>24</v>
-      </c>
-      <c r="B20" s="43" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="55">
-        <v>25</v>
-      </c>
-      <c r="B21" s="43" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="55">
-        <v>26</v>
-      </c>
-      <c r="B22" s="43" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="53">
+        <v>27</v>
+      </c>
+      <c r="B23" s="44" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="55">
-        <v>27</v>
-      </c>
-      <c r="B23" s="44" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="53">
+        <v>28</v>
+      </c>
+      <c r="B24" s="43" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="55">
-        <v>28</v>
-      </c>
-      <c r="B24" s="43" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="53">
+        <v>29</v>
+      </c>
+      <c r="B25" s="43" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="55">
-        <v>29</v>
-      </c>
-      <c r="B25" s="43" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="53">
+        <v>30</v>
+      </c>
+      <c r="B26" s="43" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="55">
-        <v>30</v>
-      </c>
-      <c r="B26" s="43" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="53">
+        <v>31</v>
+      </c>
+      <c r="B27" s="44" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="55">
-        <v>31</v>
-      </c>
-      <c r="B27" s="44" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="53">
+        <v>32</v>
+      </c>
+      <c r="B28" s="44" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="55">
-        <v>32</v>
-      </c>
-      <c r="B28" s="44" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="53">
+        <v>33</v>
+      </c>
+      <c r="B29" s="44" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="55">
-        <v>33</v>
-      </c>
-      <c r="B29" s="44" t="s">
-        <v>114</v>
-      </c>
-    </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="55">
+      <c r="A30" s="53">
         <v>34</v>
       </c>
       <c r="B30" s="43" t="s">
@@ -1546,15 +1531,15 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="55">
+      <c r="A31" s="53">
         <v>35</v>
       </c>
       <c r="B31" s="43" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="55">
+      <c r="A32" s="53">
         <v>36</v>
       </c>
       <c r="B32" s="43" t="s">
@@ -1562,15 +1547,15 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="55">
+      <c r="A33" s="53">
         <v>37</v>
       </c>
       <c r="B33" s="43" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="55">
+      <c r="A34" s="53">
         <v>38</v>
       </c>
       <c r="B34" s="43" t="s">
@@ -1578,39 +1563,39 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="55">
+      <c r="A35" s="53">
         <v>39</v>
       </c>
       <c r="B35" s="43" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="53">
+        <v>40</v>
+      </c>
+      <c r="B36" s="44" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="53">
+        <v>41</v>
+      </c>
+      <c r="B37" s="44" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="55">
-        <v>40</v>
-      </c>
-      <c r="B36" s="44" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="53">
+        <v>42</v>
+      </c>
+      <c r="B38" s="42" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="55">
-        <v>41</v>
-      </c>
-      <c r="B37" s="44" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="55">
-        <v>42</v>
-      </c>
-      <c r="B38" s="42" t="s">
-        <v>121</v>
-      </c>
-    </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="55">
+      <c r="A39" s="53">
         <v>43</v>
       </c>
       <c r="B39" s="43" t="s">
@@ -1618,7 +1603,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="55">
+      <c r="A40" s="53">
         <v>44</v>
       </c>
       <c r="B40" s="43" t="s">
@@ -1626,7 +1611,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="55">
+      <c r="A41" s="53">
         <v>45</v>
       </c>
       <c r="B41" s="43" t="s">
@@ -1634,15 +1619,15 @@
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="55">
+      <c r="A42" s="53">
         <v>46</v>
       </c>
       <c r="B42" s="43" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="55">
+      <c r="A43" s="53">
         <v>47</v>
       </c>
       <c r="B43" s="43" t="s">
@@ -1650,7 +1635,7 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="55">
+      <c r="A44" s="53">
         <v>48</v>
       </c>
       <c r="B44" s="43" t="s">
@@ -1658,187 +1643,187 @@
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="55">
+      <c r="A45" s="53">
         <v>49</v>
       </c>
       <c r="B45" s="43" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="53">
+        <v>50</v>
+      </c>
+      <c r="B46" s="42" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="53">
+        <v>51</v>
+      </c>
+      <c r="B47" s="45" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="55">
-        <v>50</v>
-      </c>
-      <c r="B46" s="42" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="53">
+        <v>52</v>
+      </c>
+      <c r="B48" s="45" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="55">
-        <v>51</v>
-      </c>
-      <c r="B47" s="45" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="53">
+        <v>53</v>
+      </c>
+      <c r="B49" s="45" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="55">
-        <v>52</v>
-      </c>
-      <c r="B48" s="45" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="53">
+        <v>54</v>
+      </c>
+      <c r="B50" s="45" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="55">
-        <v>53</v>
-      </c>
-      <c r="B49" s="45" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="53">
+        <v>55</v>
+      </c>
+      <c r="B51" s="48" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="55">
-        <v>54</v>
-      </c>
-      <c r="B50" s="45" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="53">
+        <v>56</v>
+      </c>
+      <c r="B52" s="49" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="55">
-        <v>55</v>
-      </c>
-      <c r="B51" s="49" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="53">
+        <v>57</v>
+      </c>
+      <c r="B53" s="45" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="55">
-        <v>56</v>
-      </c>
-      <c r="B52" s="50" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="53">
+        <v>58</v>
+      </c>
+      <c r="B54" s="45" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="55">
-        <v>57</v>
-      </c>
-      <c r="B53" s="45" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="53">
+        <v>59</v>
+      </c>
+      <c r="B55" s="45" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="55">
-        <v>58</v>
-      </c>
-      <c r="B54" s="45" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="53">
+        <v>60</v>
+      </c>
+      <c r="B56" s="45" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="55">
-        <v>59</v>
-      </c>
-      <c r="B55" s="45" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="53">
+        <v>61</v>
+      </c>
+      <c r="B57" s="45" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="55">
-        <v>60</v>
-      </c>
-      <c r="B56" s="45" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="53">
+        <v>62</v>
+      </c>
+      <c r="B58" s="45" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="55">
-        <v>61</v>
-      </c>
-      <c r="B57" s="45" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="53">
+        <v>63</v>
+      </c>
+      <c r="B59" s="45" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="55">
-        <v>62</v>
-      </c>
-      <c r="B58" s="45" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="53">
+        <v>64</v>
+      </c>
+      <c r="B60" s="45" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="55">
-        <v>63</v>
-      </c>
-      <c r="B59" s="45" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="53">
+        <v>65</v>
+      </c>
+      <c r="B61" s="45" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="55">
-        <v>64</v>
-      </c>
-      <c r="B60" s="45" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="53">
+        <v>66</v>
+      </c>
+      <c r="B62" s="45" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="55">
-        <v>65</v>
-      </c>
-      <c r="B61" s="45" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="53">
+        <v>67</v>
+      </c>
+      <c r="B63" s="45" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="55">
-        <v>66</v>
-      </c>
-      <c r="B62" s="45" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="53">
+        <v>68</v>
+      </c>
+      <c r="B64" s="45" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="55">
-        <v>67</v>
-      </c>
-      <c r="B63" s="45" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="53">
+        <v>69</v>
+      </c>
+      <c r="B65" s="45" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="55">
-        <v>68</v>
-      </c>
-      <c r="B64" s="45" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="53">
+        <v>70</v>
+      </c>
+      <c r="B66" s="45" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="55">
-        <v>69</v>
-      </c>
-      <c r="B65" s="45" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="55">
-        <v>70</v>
-      </c>
-      <c r="B66" s="45" t="s">
-        <v>144</v>
-      </c>
-    </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="55">
+      <c r="A67" s="53">
         <v>71</v>
       </c>
       <c r="B67" s="45" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -1848,24 +1833,23 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D31F63C-3CA1-4F02-9663-3CB2EE8E3CEB}">
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="B66" sqref="B66:E67"/>
     </sheetView>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="1">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="1">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="47.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="41.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="54"/>
+    <col min="4" max="4" width="8.88671875" style="52"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
         <v>87</v>
       </c>
@@ -1875,17 +1859,14 @@
       <c r="C1" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="53" t="s">
-        <v>146</v>
-      </c>
-      <c r="F1">
+      <c r="D1" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="46" t="s">
         <v>87</v>
       </c>
@@ -1895,17 +1876,14 @@
       <c r="C2" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="53" t="s">
-        <v>146</v>
-      </c>
-      <c r="F2">
+      <c r="D2" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="46" t="s">
         <v>87</v>
       </c>
@@ -1915,17 +1893,14 @@
       <c r="C3" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="53" t="s">
-        <v>146</v>
-      </c>
-      <c r="F3">
+      <c r="D3" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="46" t="s">
         <v>87</v>
       </c>
@@ -1935,17 +1910,14 @@
       <c r="C4" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="53" t="s">
-        <v>146</v>
-      </c>
-      <c r="F4">
+      <c r="D4" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="E4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="46" t="s">
         <v>87</v>
       </c>
@@ -1955,17 +1927,14 @@
       <c r="C5" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="53" t="s">
-        <v>146</v>
-      </c>
-      <c r="F5">
+      <c r="D5" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="46" t="s">
         <v>87</v>
       </c>
@@ -1975,17 +1944,14 @@
       <c r="C6" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="53" t="s">
-        <v>146</v>
-      </c>
-      <c r="F6">
+      <c r="D6" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="46" t="s">
         <v>87</v>
       </c>
@@ -1995,17 +1961,14 @@
       <c r="C7" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="53" t="s">
-        <v>146</v>
-      </c>
-      <c r="F7">
+      <c r="D7" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="E7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="46" t="s">
         <v>87</v>
       </c>
@@ -2015,17 +1978,14 @@
       <c r="C8" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="53" t="s">
-        <v>146</v>
-      </c>
-      <c r="F8">
+      <c r="D8" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="E8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="46" t="s">
         <v>87</v>
       </c>
@@ -2035,17 +1995,14 @@
       <c r="C9" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="53" t="s">
-        <v>146</v>
-      </c>
-      <c r="F9">
+      <c r="D9" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="E9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="46" t="s">
         <v>87</v>
       </c>
@@ -2055,17 +2012,14 @@
       <c r="C10" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="53" t="s">
-        <v>146</v>
-      </c>
-      <c r="F10">
+      <c r="D10" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="E10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="46" t="s">
         <v>87</v>
       </c>
@@ -2075,17 +2029,14 @@
       <c r="C11" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="53" t="s">
-        <v>146</v>
-      </c>
-      <c r="F11">
+      <c r="D11" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="E11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="46" t="s">
         <v>87</v>
       </c>
@@ -2095,17 +2046,14 @@
       <c r="C12" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="53" t="s">
-        <v>146</v>
-      </c>
-      <c r="F12">
+      <c r="D12" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="E12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="46" t="s">
         <v>99</v>
       </c>
@@ -2115,499 +2063,424 @@
       <c r="C13" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="53" t="s">
-        <v>146</v>
-      </c>
-      <c r="F13">
+      <c r="D13" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="E13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="46" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="C14" s="46" t="s">
-        <v>151</v>
-      </c>
-      <c r="D14" s="47" t="s">
-        <v>101</v>
-      </c>
-      <c r="E14" s="53" t="s">
-        <v>147</v>
-      </c>
-      <c r="F14">
+      <c r="D14" s="51" t="s">
+        <v>144</v>
+      </c>
+      <c r="E14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="B15" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="C15" s="46" t="s">
-        <v>151</v>
-      </c>
-      <c r="D15" s="47" t="s">
-        <v>102</v>
-      </c>
-      <c r="E15" s="53" t="s">
+      <c r="B15" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="F15">
+      <c r="C15" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="E15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="B16" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="C16" s="46" t="s">
-        <v>151</v>
-      </c>
-      <c r="D16" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="E16" s="53" t="s">
-        <v>146</v>
-      </c>
-      <c r="F16">
+      <c r="B16" s="46" t="s">
+        <v>148</v>
+      </c>
+      <c r="C16" s="47" t="s">
+        <v>149</v>
+      </c>
+      <c r="D16" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="E16">
         <v>3.5999712002303978E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="B17" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="C17" s="46" t="s">
-        <v>151</v>
-      </c>
-      <c r="D17" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="53" t="s">
-        <v>146</v>
-      </c>
-      <c r="F17">
+      <c r="B17" s="46" t="s">
+        <v>148</v>
+      </c>
+      <c r="C17" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="E17">
         <v>3.5999712002303978E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="B18" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="C18" s="46" t="s">
-        <v>153</v>
-      </c>
-      <c r="D18" s="47" t="s">
-        <v>105</v>
-      </c>
-      <c r="E18" s="53" t="s">
-        <v>147</v>
-      </c>
-      <c r="F18">
+      <c r="B18" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="C18" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" s="51" t="s">
+        <v>144</v>
+      </c>
+      <c r="E18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="B19" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="C19" s="46" t="s">
-        <v>153</v>
-      </c>
-      <c r="D19" s="47" t="s">
-        <v>154</v>
-      </c>
-      <c r="E19" s="53" t="s">
-        <v>146</v>
-      </c>
-      <c r="F19">
+      <c r="B19" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="C19" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="D19" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="E19">
         <v>3.5999712002303978E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="B20" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="C20" s="46" t="s">
-        <v>153</v>
-      </c>
-      <c r="D20" s="47" t="s">
-        <v>102</v>
-      </c>
-      <c r="E20" s="53" t="s">
-        <v>148</v>
-      </c>
-      <c r="F20">
+      <c r="B20" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="C20" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="E20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="B21" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="C21" s="46" t="s">
-        <v>153</v>
-      </c>
-      <c r="D21" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="E21" s="53" t="s">
-        <v>146</v>
-      </c>
-      <c r="F21">
+      <c r="B21" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="C21" s="47" t="s">
+        <v>149</v>
+      </c>
+      <c r="D21" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="E21">
         <v>3.5999712002303978E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="B22" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="C22" s="46" t="s">
-        <v>153</v>
-      </c>
-      <c r="D22" s="47" t="s">
-        <v>155</v>
-      </c>
-      <c r="E22" s="53" t="s">
-        <v>146</v>
-      </c>
-      <c r="F22">
+      <c r="B22" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="C22" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="D22" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="E22">
         <v>3.5999712002303978E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="B23" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="C23" s="46" t="s">
-        <v>153</v>
-      </c>
-      <c r="D23" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23" s="53" t="s">
-        <v>146</v>
-      </c>
-      <c r="F23">
+      <c r="B23" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="C23" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="E23">
         <v>3.5999712002303978E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="B24" s="51" t="s">
-        <v>145</v>
-      </c>
-      <c r="C24" s="46" t="s">
-        <v>156</v>
-      </c>
-      <c r="D24" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="E24" s="53" t="s">
-        <v>147</v>
-      </c>
-      <c r="F24">
+      <c r="B24" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="C24" s="47" t="s">
+        <v>159</v>
+      </c>
+      <c r="D24" s="51" t="s">
+        <v>144</v>
+      </c>
+      <c r="E24">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="B25" s="51" t="s">
-        <v>145</v>
-      </c>
-      <c r="C25" s="46" t="s">
-        <v>156</v>
-      </c>
-      <c r="D25" s="47" t="s">
-        <v>163</v>
-      </c>
-      <c r="E25" s="53" t="s">
-        <v>147</v>
-      </c>
-      <c r="F25">
+      <c r="B25" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="C25" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="D25" s="51" t="s">
+        <v>144</v>
+      </c>
+      <c r="E25">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="B26" s="51" t="s">
-        <v>145</v>
-      </c>
-      <c r="C26" s="46" t="s">
-        <v>156</v>
-      </c>
-      <c r="D26" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="E26" s="53" t="s">
-        <v>146</v>
-      </c>
-      <c r="F26">
+      <c r="B26" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="C26" s="47" t="s">
+        <v>154</v>
+      </c>
+      <c r="D26" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="E26">
         <v>3.5999712002303978E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="B27" s="51" t="s">
-        <v>145</v>
-      </c>
-      <c r="C27" s="46" t="s">
-        <v>156</v>
-      </c>
-      <c r="D27" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="E27" s="53" t="s">
-        <v>146</v>
-      </c>
-      <c r="F27">
+      <c r="B27" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="C27" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="E27">
         <v>3.5999712002303978E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="B28" s="51" t="s">
-        <v>145</v>
-      </c>
-      <c r="C28" s="46" t="s">
-        <v>158</v>
-      </c>
-      <c r="D28" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="E28" s="53" t="s">
-        <v>146</v>
-      </c>
-      <c r="F28">
+      <c r="B28" s="46" t="s">
+        <v>155</v>
+      </c>
+      <c r="C28" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="E28">
         <v>3.5999712002303978E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="B29" s="51" t="s">
-        <v>145</v>
-      </c>
-      <c r="C29" s="46" t="s">
-        <v>159</v>
-      </c>
-      <c r="D29" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="E29" s="53" t="s">
-        <v>146</v>
-      </c>
-      <c r="F29">
+      <c r="B29" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="C29" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="E29">
         <v>3.5999712002303978E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="B30" s="51" t="s">
-        <v>115</v>
-      </c>
-      <c r="C30" s="46" t="s">
-        <v>160</v>
-      </c>
-      <c r="D30" s="47" t="s">
+      <c r="B30" s="46" t="s">
+        <v>157</v>
+      </c>
+      <c r="C30" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="E30" s="53" t="s">
-        <v>146</v>
-      </c>
-      <c r="F30">
+      <c r="D30" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="E30">
         <v>3.5999712002303978E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="B31" s="51" t="s">
-        <v>115</v>
-      </c>
-      <c r="C31" s="46" t="s">
-        <v>160</v>
-      </c>
-      <c r="D31" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="E31" s="53" t="s">
-        <v>146</v>
-      </c>
-      <c r="F31">
+      <c r="B31" s="46" t="s">
+        <v>157</v>
+      </c>
+      <c r="C31" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="D31" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="E31">
         <v>3.5999712002303978E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="B32" s="51" t="s">
-        <v>115</v>
-      </c>
-      <c r="C32" s="46" t="s">
-        <v>160</v>
-      </c>
-      <c r="D32" s="47" t="s">
+      <c r="B32" s="46" t="s">
+        <v>157</v>
+      </c>
+      <c r="C32" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="E32" s="53" t="s">
-        <v>146</v>
-      </c>
-      <c r="F32">
+      <c r="D32" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="E32">
         <v>3.5999712002303978E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="B33" s="51" t="s">
+      <c r="B33" s="46" t="s">
+        <v>157</v>
+      </c>
+      <c r="C33" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="C33" s="46" t="s">
-        <v>160</v>
-      </c>
-      <c r="D33" s="47" t="s">
-        <v>117</v>
-      </c>
-      <c r="E33" s="53" t="s">
-        <v>146</v>
-      </c>
-      <c r="F33">
+      <c r="D33" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="E33">
         <v>3.5999712002303978E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="B34" s="51" t="s">
-        <v>115</v>
-      </c>
-      <c r="C34" s="46" t="s">
-        <v>160</v>
-      </c>
-      <c r="D34" s="47" t="s">
+      <c r="B34" s="46" t="s">
+        <v>157</v>
+      </c>
+      <c r="C34" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="E34" s="53" t="s">
-        <v>146</v>
-      </c>
-      <c r="F34">
+      <c r="D34" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="E34">
         <v>3.5999712002303978E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="B35" s="51" t="s">
-        <v>115</v>
-      </c>
-      <c r="C35" s="46" t="s">
-        <v>160</v>
-      </c>
-      <c r="D35" s="47" t="s">
-        <v>118</v>
-      </c>
-      <c r="E35" s="53" t="s">
-        <v>146</v>
-      </c>
-      <c r="F35">
+      <c r="B35" s="46" t="s">
+        <v>157</v>
+      </c>
+      <c r="C35" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="D35" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="E35">
         <v>3.5999712002303978E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="B36" s="51" t="s">
-        <v>115</v>
-      </c>
-      <c r="C36" s="46" t="s">
-        <v>160</v>
-      </c>
-      <c r="D36" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="E36" s="53" t="s">
-        <v>146</v>
-      </c>
-      <c r="F36">
+      <c r="B36" s="46" t="s">
+        <v>157</v>
+      </c>
+      <c r="C36" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="E36">
         <v>3.5999712002303978E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37" s="46" t="s">
-        <v>161</v>
-      </c>
-      <c r="D37" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="E37" s="53" t="s">
-        <v>146</v>
-      </c>
-      <c r="F37">
+      <c r="B37" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="C37" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="E37">
         <v>3.5999712002303978E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="46" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>54</v>
@@ -2615,19 +2488,16 @@
       <c r="C38" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D38" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="E38" s="53" t="s">
-        <v>146</v>
-      </c>
-      <c r="F38">
+      <c r="D38" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="E38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="46" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B39" s="47" t="s">
         <v>95</v>
@@ -2635,19 +2505,16 @@
       <c r="C39" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D39" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="E39" s="53" t="s">
-        <v>146</v>
-      </c>
-      <c r="F39">
+      <c r="D39" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="E39">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="46" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B40" s="47" t="s">
         <v>89</v>
@@ -2655,19 +2522,16 @@
       <c r="C40" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D40" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="E40" s="53" t="s">
-        <v>146</v>
-      </c>
-      <c r="F40">
+      <c r="D40" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="E40">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="46" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B41" s="47" t="s">
         <v>91</v>
@@ -2675,39 +2539,33 @@
       <c r="C41" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D41" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="E41" s="53" t="s">
-        <v>146</v>
-      </c>
-      <c r="F41">
+      <c r="D41" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="E41">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="46" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B42" s="47" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D42" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="E42" s="53" t="s">
-        <v>146</v>
-      </c>
-      <c r="F42">
+      <c r="D42" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="E42">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="46" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B43" s="47" t="s">
         <v>94</v>
@@ -2715,19 +2573,16 @@
       <c r="C43" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D43" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="E43" s="53" t="s">
-        <v>146</v>
-      </c>
-      <c r="F43">
+      <c r="D43" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="E43">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="46" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B44" s="47" t="s">
         <v>90</v>
@@ -2735,473 +2590,401 @@
       <c r="C44" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D44" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="E44" s="53" t="s">
+      <c r="D44" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="B45" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D47" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D48" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D49" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D50" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D51" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D52" s="51" t="s">
         <v>146</v>
       </c>
-      <c r="F44">
+      <c r="E52">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="B45" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D45" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="E45" s="53" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D53" s="51" t="s">
         <v>146</v>
       </c>
-      <c r="F45">
+      <c r="E53">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D46" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="E46" s="53" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D54" s="51" t="s">
         <v>146</v>
       </c>
-      <c r="F46">
+      <c r="E54">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="47" t="s">
-        <v>125</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D47" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="E47" s="53" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D55" s="51" t="s">
         <v>146</v>
       </c>
-      <c r="F47">
+      <c r="E55">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="47" t="s">
-        <v>126</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D48" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="E48" s="53" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D56" s="51" t="s">
         <v>146</v>
       </c>
-      <c r="F48">
+      <c r="E56">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="47" t="s">
-        <v>127</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D49" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="E49" s="53" t="s">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D57" s="51" t="s">
         <v>146</v>
       </c>
-      <c r="F49">
+      <c r="E57">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="47" t="s">
-        <v>128</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D50" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="E50" s="53" t="s">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D58" s="51" t="s">
         <v>146</v>
       </c>
-      <c r="F50">
+      <c r="E58">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="49" t="s">
-        <v>129</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D51" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="E51" s="53" t="s">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D59" s="51" t="s">
         <v>146</v>
       </c>
-      <c r="F51">
+      <c r="E59">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="50" t="s">
-        <v>130</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D52" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="E52" s="53" t="s">
-        <v>149</v>
-      </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D53" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="E53" s="53" t="s">
-        <v>149</v>
-      </c>
-      <c r="F53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D54" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="E54" s="53" t="s">
-        <v>149</v>
-      </c>
-      <c r="F54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="45" t="s">
-        <v>133</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D55" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="E55" s="53" t="s">
-        <v>149</v>
-      </c>
-      <c r="F55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="45" t="s">
-        <v>134</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D56" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="E56" s="53" t="s">
-        <v>149</v>
-      </c>
-      <c r="F56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="45" t="s">
-        <v>135</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D57" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="E57" s="53" t="s">
-        <v>149</v>
-      </c>
-      <c r="F57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="45" t="s">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="B58" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D58" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="E58" s="53" t="s">
-        <v>149</v>
-      </c>
-      <c r="F58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="45" t="s">
+      <c r="B60" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D60" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="E60">
+        <v>3.5999712002303978E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="45" t="s">
         <v>137</v>
       </c>
-      <c r="B59" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D59" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="E59" s="53" t="s">
-        <v>149</v>
-      </c>
-      <c r="F59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="45" t="s">
+      <c r="B61" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D61" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="E61">
+        <v>3.5999712002303978E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="B60" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D60" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="E60" s="53" t="s">
-        <v>146</v>
-      </c>
-      <c r="F60">
+      <c r="B62" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D62" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="E62">
         <v>3.5999712002303978E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="45" t="s">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="B61" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D61" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="E61" s="53" t="s">
-        <v>146</v>
-      </c>
-      <c r="F61">
+      <c r="B63" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D63" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="E63">
         <v>3.5999712002303978E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="45" t="s">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="45" t="s">
         <v>140</v>
       </c>
-      <c r="B62" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D62" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="E62" s="53" t="s">
-        <v>146</v>
-      </c>
-      <c r="F62">
+      <c r="B64" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D64" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="E64">
         <v>3.5999712002303978E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="45" t="s">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="B63" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D63" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="E63" s="53" t="s">
-        <v>146</v>
-      </c>
-      <c r="F63">
+      <c r="B65" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D65" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="E65">
         <v>3.5999712002303978E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="45" t="s">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="B64" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D64" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="E64" s="53" t="s">
-        <v>146</v>
-      </c>
-      <c r="F64">
+      <c r="B66" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D66" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="E66">
         <v>3.5999712002303978E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="45" t="s">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D67" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="B65" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D65" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="E65" s="53" t="s">
-        <v>146</v>
-      </c>
-      <c r="F65">
-        <v>3.5999712002303978E-3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="45" t="s">
-        <v>144</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D66" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="E66" s="53" t="s">
-        <v>146</v>
-      </c>
-      <c r="F66">
-        <v>3.5999712002303978E-3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="45" t="s">
-        <v>150</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D67" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="E67" s="53" t="s">
-        <v>146</v>
-      </c>
-      <c r="F67">
+      <c r="E67">
         <v>3.5999712002303978E-3</v>
       </c>
     </row>
@@ -3214,7 +2997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3947C09A-79F1-401A-A87E-453AA930392A}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
@@ -5614,7 +5397,9 @@
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView topLeftCell="A129" workbookViewId="1">
+      <selection activeCell="A8" activeCellId="3" sqref="A11 A10 A9 A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -7159,10 +6944,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E8AFBA-07A9-4455-A81D-B6FA37A642DE}">
   <dimension ref="A1:E190"/>
   <sheetViews>
-    <sheetView topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="A190" sqref="A144:A190"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView topLeftCell="A179" workbookViewId="1">
+      <selection activeCell="B186" sqref="B186"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -10412,10 +10199,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58836D7E-1A4A-4B45-A6CC-42ABDF35DAA2}">
   <dimension ref="A1:A27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="1">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -10567,7 +10356,9 @@
     <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="1">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -10683,9 +10474,7 @@
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
-    <sheetView topLeftCell="A38" workbookViewId="1">
-      <selection sqref="A1:A67"/>
-    </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -10759,82 +10548,82 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="43" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="43" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="43" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="44" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="43" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="43" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="43" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="43" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="43" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="44" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="43" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="43" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="43" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="44" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
@@ -10844,7 +10633,7 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="43" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
@@ -10854,7 +10643,7 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="43" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
@@ -10864,22 +10653,22 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="43" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="44" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="44" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="42" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
@@ -10899,7 +10688,7 @@
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="43" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
@@ -10914,117 +10703,117 @@
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="43" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="42" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="45" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="45" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="45" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="45" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="48" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="49" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="49" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="50" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="45" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="45" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="45" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="45" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="45" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="45" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="45" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="45" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="45" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="45" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="45" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="45" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="45" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="45" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="45" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
